--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D250347-226D-426C-A486-9B6299C367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4570E4E1-D3CF-4734-9328-5D1368206DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="4725" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="12795" yWindow="4470" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -386,21 +386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -408,19 +393,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -443,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,13 +431,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +789,10 @@
       <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -843,13 +809,13 @@
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -866,13 +832,13 @@
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -889,13 +855,13 @@
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -912,13 +878,13 @@
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -935,13 +901,13 @@
       <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -958,9 +924,9 @@
       <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -975,13 +941,13 @@
       <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -998,13 +964,13 @@
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1021,13 +987,13 @@
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1044,13 +1010,13 @@
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1067,13 +1033,13 @@
       <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1090,13 +1056,13 @@
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1113,13 +1079,13 @@
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1136,13 +1102,13 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>67</v>
       </c>
     </row>

--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4570E4E1-D3CF-4734-9328-5D1368206DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CCFD5B-BDF8-4304-9BEC-C192F48ED011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="4470" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="12735" yWindow="5190" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -266,42 +266,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DownSideApproachingAlarmName</t>
-  </si>
-  <si>
-    <t>DirectionLeverAlarmName</t>
-  </si>
-  <si>
-    <t>730Hz_short</t>
-  </si>
-  <si>
-    <t>410Hz_long</t>
-  </si>
-  <si>
-    <t>610Hz_long</t>
-  </si>
-  <si>
-    <t>UpSideApproachingAlarmName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>830Hz_short</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>510Hz_long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>710Hz_long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>630Hz_short</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>310Hz_long</t>
+    <t>UpSideAlarmName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpSideAlarmType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownSideAlarmName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownSideAlarmType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DirectionAlarmName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DirectionAlarmType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_830hz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_730hz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_610hz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_410hz</t>
+  </si>
+  <si>
+    <t>bz_310hz</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -748,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,22 +770,19 @@
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="23" width="18.75" customWidth="1"/>
-    <col min="24" max="24" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="25" width="18.75" customWidth="1"/>
+    <col min="26" max="26" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -787,16 +796,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,16 +828,25 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -833,16 +860,25 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -859,13 +895,22 @@
         <v>68</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -879,16 +924,25 @@
         <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -902,16 +956,25 @@
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -927,8 +990,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -945,13 +1011,22 @@
         <v>68</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -965,16 +1040,25 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -988,16 +1072,25 @@
         <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1014,13 +1107,22 @@
         <v>68</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1034,16 +1136,25 @@
         <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1057,16 +1168,25 @@
         <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1083,13 +1203,22 @@
         <v>68</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1103,13 +1232,22 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CCFD5B-BDF8-4304-9BEC-C192F48ED011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9982026-A82E-40D5-9283-B89C4AAB6DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12735" yWindow="5190" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="5220" yWindow="4875" windowWidth="23970" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -976,36 +976,48 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>68</v>

--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9982026-A82E-40D5-9283-B89C4AAB6DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AF00D1-A3DC-4B6E-A344-032F1196C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="4875" windowWidth="23970" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="8745" yWindow="3600" windowWidth="23970" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>FileName</t>
     <phoneticPr fontId="1"/>
@@ -294,6 +294,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>bz_830hz</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -306,11 +310,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bz_410hz</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bz_310hz</t>
@@ -828,22 +829,22 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -860,22 +861,22 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -892,22 +893,22 @@
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -924,22 +925,22 @@
         <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -956,22 +957,22 @@
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -988,22 +989,22 @@
         <v>58</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -1019,24 +1020,12 @@
       <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1052,22 +1041,22 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1084,22 +1073,22 @@
         <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -1116,22 +1105,22 @@
         <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1148,22 +1137,22 @@
         <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1180,22 +1169,22 @@
         <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1212,22 +1201,22 @@
         <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1244,26 +1233,27 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BF17DA-9A01-421D-9898-467D555D968E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830423C6-74E1-4C6F-8B90-A43D2D797A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="3900" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="4245" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StationSettingList" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>StationName</t>
   </si>
@@ -107,6 +107,9 @@
     <t>TH71_津崎駅_UIList</t>
   </si>
   <si>
+    <t>bz_510hz</t>
+  </si>
+  <si>
     <t>bz_830hz</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>TH65_大道寺駅_UIList</t>
   </si>
   <si>
+    <t>bz_530hz</t>
+  </si>
+  <si>
     <t>藤江駅</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>TH64_藤江駅_UIList</t>
   </si>
   <si>
+    <t>bz_630hz</t>
+  </si>
+  <si>
     <t>水越駅</t>
   </si>
   <si>
@@ -189,6 +198,9 @@
   </si>
   <si>
     <t>TH63_水越駅_UIList</t>
+  </si>
+  <si>
+    <t>bz_750hz</t>
   </si>
   <si>
     <t>高見沢駅</t>
@@ -704,13 +716,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
@@ -724,16 +736,16 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -756,16 +768,16 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
@@ -788,25 +800,25 @@
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
@@ -820,16 +832,16 @@
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -840,16 +852,16 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
@@ -864,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>15</v>
@@ -872,16 +884,16 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>22</v>
@@ -896,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>15</v>
@@ -904,31 +916,31 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>15</v>
@@ -936,16 +948,16 @@
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
@@ -960,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>15</v>
@@ -968,16 +980,16 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
@@ -992,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>15</v>
@@ -1000,31 +1012,31 @@
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>15</v>
@@ -1032,16 +1044,16 @@
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -1056,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>15</v>

--- a/exe/TSV/Excel/StationSettingList.xlsx
+++ b/exe/TSV/Excel/StationSettingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830423C6-74E1-4C6F-8B90-A43D2D797A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C0B5A-1501-4D7C-8D1D-95A4C6915A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="4245" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12210" yWindow="4500" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StationSettingList" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,13 @@
     <t>TH76_館浜駅_UIList</t>
   </si>
   <si>
-    <t>bz_310hz</t>
+    <t>bz_310Hz</t>
   </si>
   <si>
     <t>Long</t>
   </si>
   <si>
-    <t>bz_610hz</t>
+    <t>bz_610Hz</t>
   </si>
   <si>
     <t>Short</t>
@@ -89,10 +89,10 @@
     <t>TH75_駒野駅_UIList</t>
   </si>
   <si>
-    <t>bz_410hz</t>
-  </si>
-  <si>
-    <t>bz_730hz</t>
+    <t>bz_410Hz</t>
+  </si>
+  <si>
+    <t>bz_730Hz</t>
   </si>
   <si>
     <t>津崎駅</t>
@@ -107,10 +107,10 @@
     <t>TH71_津崎駅_UIList</t>
   </si>
   <si>
-    <t>bz_510hz</t>
-  </si>
-  <si>
-    <t>bz_830hz</t>
+    <t>bz_510Hz</t>
+  </si>
+  <si>
+    <t>bz_830Hz</t>
   </si>
   <si>
     <t>浜園駅</t>
@@ -170,7 +170,7 @@
     <t>TH65_大道寺駅_UIList</t>
   </si>
   <si>
-    <t>bz_530hz</t>
+    <t>bz_530Hz</t>
   </si>
   <si>
     <t>藤江駅</t>
@@ -185,7 +185,7 @@
     <t>TH64_藤江駅_UIList</t>
   </si>
   <si>
-    <t>bz_630hz</t>
+    <t>bz_630Hz</t>
   </si>
   <si>
     <t>水越駅</t>
@@ -200,7 +200,7 @@
     <t>TH63_水越駅_UIList</t>
   </si>
   <si>
-    <t>bz_750hz</t>
+    <t>bz_750Hz</t>
   </si>
   <si>
     <t>高見沢駅</t>
